--- a/アルバム情報_単体テスト.xlsx
+++ b/アルバム情報_単体テスト.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/tanntaitest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{116B13CA-06EB-417D-9555-FC6399ED6A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C06721F9-1E6F-4BD6-9423-C90EA12DC662}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{116B13CA-06EB-417D-9555-FC6399ED6A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B6B6B8E-7A74-41BB-BC70-DDD55BFFB693}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="38">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -363,10 +363,6 @@
     <rPh sb="2" eb="4">
       <t>サクジョ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>×</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -459,24 +455,6 @@
   </cellStyles>
   <dxfs count="21">
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -507,6 +485,24 @@
           <bgColor theme="0" tint="-0.14999847407452621"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -789,11 +785,11 @@
     <tableColumn id="2" xr3:uid="{5394309E-B36D-49F6-8FFA-FA4533603CFC}" name="大項目" headerRowDxfId="8"/>
     <tableColumn id="3" xr3:uid="{DF451A8A-0967-4F94-818E-D3570FB2B59A}" name="列3" headerRowDxfId="7"/>
     <tableColumn id="4" xr3:uid="{AA73A768-6C08-4C8A-8A41-080408F0AB37}" name="確認内容" headerRowDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{6141D254-140D-4DE7-8906-7D69CA8C3D85}" name="操作手順" headerRowDxfId="5" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{6AF9EC68-EC56-4467-9A36-1F8EF68C1869}" name="期待値" headerRowDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{5A6CDAFA-28ED-474C-9188-6640A9DE1114}" name="実施日" headerRowDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{F8526597-746C-445B-B540-B42B399D4251}" name="実施結果" headerRowDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{AE55A6DD-6261-4C39-A3F5-649816E20F04}" name="備考" headerRowDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{6141D254-140D-4DE7-8906-7D69CA8C3D85}" name="操作手順" headerRowDxfId="5" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{6AF9EC68-EC56-4467-9A36-1F8EF68C1869}" name="期待値" headerRowDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{5A6CDAFA-28ED-474C-9188-6640A9DE1114}" name="実施日" headerRowDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{F8526597-746C-445B-B540-B42B399D4251}" name="実施結果" headerRowDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{AE55A6DD-6261-4C39-A3F5-649816E20F04}" name="備考" headerRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1118,8 +1114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="79" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1377,10 +1373,10 @@
         <v>32</v>
       </c>
       <c r="G16" s="4">
-        <v>45994</v>
+        <v>45998</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="I16" s="2"/>
     </row>
